--- a/public_html/template.xlsx
+++ b/public_html/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\team165\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.4\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B035B9F-65E6-439E-9807-A514F2E2D649}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F99AAE-553B-4812-A1B7-F4A7B6C8F1D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="1665" windowWidth="30900" windowHeight="19320" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29595" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -357,11 +356,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -828,10 +828,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -840,14 +846,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -855,42 +894,6 @@
     <xf numFmtId="5" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -914,9 +917,6 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1404,26 +1404,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="13" style="1"/>
   </cols>
   <sheetData>
@@ -1438,11 +1436,11 @@
       <c r="F1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="53">
+      <c r="G1" s="52">
         <f ca="1">TODAY()</f>
-        <v>43503</v>
-      </c>
-      <c r="H1" s="53"/>
+        <v>43598</v>
+      </c>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1478,12 +1476,12 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="43"/>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
@@ -1491,12 +1489,12 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="42"/>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E8" s="23"/>
@@ -1505,22 +1503,22 @@
       <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
     </row>
     <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
@@ -1542,9 +1540,9 @@
         <v>24</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="73">
+      <c r="C13" s="44">
         <f ca="1">EOMONTH(G1,0)</f>
-        <v>43524</v>
+        <v>43616</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
@@ -1558,10 +1556,10 @@
       <c r="C14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
@@ -1588,15 +1586,15 @@
         <v>20</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52">
+      <c r="F17" s="64"/>
+      <c r="G17" s="65">
         <f>G42</f>
         <v>0</v>
       </c>
-      <c r="H17" s="52"/>
+      <c r="H17" s="65"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1604,293 +1602,293 @@
         <v>15</v>
       </c>
       <c r="B19" s="33"/>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="67"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="70" t="s">
+      <c r="G19" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="70"/>
+      <c r="H19" s="71"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="37"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="15"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="48" t="str">
+      <c r="G20" s="47" t="str">
         <f t="shared" ref="G20:G38" si="0">IF(E20="","",E20*F20)</f>
         <v/>
       </c>
-      <c r="H20" s="48"/>
+      <c r="H20" s="47"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="34"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="15"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="71" t="str">
+      <c r="G21" s="72" t="str">
         <f>IF(E21="","",E21*F21)</f>
         <v/>
       </c>
-      <c r="H21" s="72"/>
+      <c r="H21" s="73"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="15"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="48" t="str">
+      <c r="G22" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="48"/>
+      <c r="H22" s="47"/>
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="34"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="15"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="48" t="str">
+      <c r="G23" s="47" t="str">
         <f>IF(E23="","",E23*F23)</f>
         <v/>
       </c>
-      <c r="H23" s="48"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="34"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="15"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="48" t="str">
+      <c r="G24" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="48"/>
+      <c r="H24" s="47"/>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="34"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="15"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="48" t="str">
+      <c r="G25" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H25" s="48"/>
+      <c r="H25" s="47"/>
     </row>
     <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="34"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="15"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="48" t="str">
+      <c r="G26" s="47" t="str">
         <f>IF(E26="","",E26*F26)</f>
         <v/>
       </c>
-      <c r="H26" s="48"/>
+      <c r="H26" s="47"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="15"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="48" t="str">
+      <c r="G27" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H27" s="48"/>
+      <c r="H27" s="47"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="47"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="15"/>
       <c r="F28" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="48" t="str">
+      <c r="G28" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="48"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="51"/>
       <c r="E29" s="15"/>
       <c r="F29" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="48" t="str">
+      <c r="G29" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="47"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="34"/>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="47"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="15"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="48" t="str">
+      <c r="G30" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="48"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="50"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="15"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="48" t="str">
+      <c r="G31" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="48"/>
+      <c r="H31" s="47"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="34"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="50"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="15"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="48" t="str">
+      <c r="G32" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="48"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="50"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="15"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="48" t="str">
+      <c r="G33" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H33" s="48"/>
+      <c r="H33" s="47"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="34"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="15"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="48" t="str">
+      <c r="G34" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H34" s="48"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="50"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="15"/>
       <c r="F35" s="21"/>
-      <c r="G35" s="48" t="str">
+      <c r="G35" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="48"/>
+      <c r="H35" s="47"/>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="15"/>
       <c r="F36" s="21"/>
-      <c r="G36" s="48" t="str">
+      <c r="G36" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="48"/>
+      <c r="H36" s="47"/>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="50"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="15"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="48" t="str">
+      <c r="G37" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H37" s="48"/>
+      <c r="H37" s="47"/>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="35"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="16"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="62" t="str">
+      <c r="G38" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H38" s="62"/>
+      <c r="H38" s="61"/>
     </row>
     <row r="39" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1903,41 +1901,41 @@
       <c r="F40" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="64">
+      <c r="G40" s="63">
         <f>SUM(G20:H38)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="64"/>
+      <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
       <c r="F41" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="63">
+      <c r="G41" s="62">
         <f>ROUNDDOWN(G40*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="63"/>
+      <c r="H41" s="62"/>
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="56"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="58"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="57"/>
       <c r="F42" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="61">
+      <c r="G42" s="60">
         <f>G40+G41</f>
         <v>0</v>
       </c>
-      <c r="H42" s="61"/>
+      <c r="H42" s="60"/>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.15"/>
@@ -1957,7 +1955,6 @@
     <row r="58" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A10:H10"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="G19:H19"/>
@@ -1967,16 +1964,19 @@
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C24:D24"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A10:H10"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="C20:D20"/>
@@ -1993,8 +1993,6 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G22:H22"/>
@@ -2021,7 +2019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2034,7 +2032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2047,7 +2045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2060,7 +2058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2073,7 +2071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2086,7 +2084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2099,7 +2097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2112,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2125,7 +2123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2140,7 +2138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2153,14 +2151,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="121.625" customWidth="1"/>
+    <col min="1" max="1" width="121.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="408.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2172,7 +2170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2185,7 +2183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2198,7 +2196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2211,7 +2209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2224,7 +2222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2237,7 +2235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2250,7 +2248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2263,7 +2261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2276,7 +2274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2289,7 +2287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2302,23 +2300,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="9" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="26.125" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
@@ -2328,7 +2326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2341,7 +2339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2354,7 +2352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2367,7 +2365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2380,7 +2378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2393,7 +2391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2406,7 +2404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2419,7 +2417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2432,7 +2430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/public_html/template.xlsx
+++ b/public_html/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.4\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F99AAE-553B-4812-A1B7-F4A7B6C8F1D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2B6388-8949-471A-9201-A49FBB76E876}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29595" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -831,26 +831,44 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -894,28 +912,10 @@
     <xf numFmtId="5" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1436,11 +1436,11 @@
       <c r="F1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="52">
+      <c r="G1" s="58">
         <f ca="1">TODAY()</f>
-        <v>43598</v>
-      </c>
-      <c r="H1" s="52"/>
+        <v>43599</v>
+      </c>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1476,12 +1476,12 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="43"/>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
@@ -1489,12 +1489,12 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="42"/>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E8" s="23"/>
@@ -1503,22 +1503,22 @@
       <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
     </row>
     <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
@@ -1556,10 +1556,10 @@
       <c r="C14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
@@ -1586,15 +1586,15 @@
         <v>20</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65">
+      <c r="F17" s="70"/>
+      <c r="G17" s="71">
         <f>G42</f>
         <v>0</v>
       </c>
-      <c r="H17" s="65"/>
+      <c r="H17" s="71"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1602,293 +1602,293 @@
         <v>15</v>
       </c>
       <c r="B19" s="33"/>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="68"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="71" t="s">
+      <c r="G19" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="71"/>
+      <c r="H19" s="49"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="37"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="15"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="47" t="str">
+      <c r="G20" s="52" t="str">
         <f t="shared" ref="G20:G38" si="0">IF(E20="","",E20*F20)</f>
         <v/>
       </c>
-      <c r="H20" s="47"/>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="34"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="15"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="72" t="str">
+      <c r="G21" s="50" t="str">
         <f>IF(E21="","",E21*F21)</f>
         <v/>
       </c>
-      <c r="H21" s="73"/>
+      <c r="H21" s="51"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="15"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="47" t="str">
+      <c r="G22" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="47"/>
+      <c r="H22" s="52"/>
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="34"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="15"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="47" t="str">
+      <c r="G23" s="52" t="str">
         <f>IF(E23="","",E23*F23)</f>
         <v/>
       </c>
-      <c r="H23" s="47"/>
+      <c r="H23" s="52"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="34"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="15"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="47" t="str">
+      <c r="G24" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="47"/>
+      <c r="H24" s="52"/>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="34"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="15"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="47" t="str">
+      <c r="G25" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H25" s="47"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="34"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="15"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="47" t="str">
+      <c r="G26" s="52" t="str">
         <f>IF(E26="","",E26*F26)</f>
         <v/>
       </c>
-      <c r="H26" s="47"/>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="15"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="47" t="str">
+      <c r="G27" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H27" s="47"/>
+      <c r="H27" s="52"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="49"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="15"/>
       <c r="F28" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="47" t="str">
+      <c r="G28" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="47"/>
+      <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="51"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="15"/>
       <c r="F29" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="47" t="str">
+      <c r="G29" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="47"/>
+      <c r="H29" s="52"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="34"/>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="49"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="15"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="47" t="str">
+      <c r="G30" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="47"/>
+      <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="46"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="15"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="47" t="str">
+      <c r="G31" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="47"/>
+      <c r="H31" s="52"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="34"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="15"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="47" t="str">
+      <c r="G32" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="47"/>
+      <c r="H32" s="52"/>
     </row>
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="15"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="47" t="str">
+      <c r="G33" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H33" s="47"/>
+      <c r="H33" s="52"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="34"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="15"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="47" t="str">
+      <c r="G34" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H34" s="47"/>
+      <c r="H34" s="52"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="15"/>
       <c r="F35" s="21"/>
-      <c r="G35" s="47" t="str">
+      <c r="G35" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="47"/>
+      <c r="H35" s="52"/>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="15"/>
       <c r="F36" s="21"/>
-      <c r="G36" s="47" t="str">
+      <c r="G36" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="47"/>
+      <c r="H36" s="52"/>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="15"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="47" t="str">
+      <c r="G37" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H37" s="47"/>
+      <c r="H37" s="52"/>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="35"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="16"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="61" t="str">
+      <c r="G38" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H38" s="61"/>
+      <c r="H38" s="67"/>
     </row>
     <row r="39" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1901,41 +1901,41 @@
       <c r="F40" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="63">
+      <c r="G40" s="69">
         <f>SUM(G20:H38)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="63"/>
+      <c r="H40" s="69"/>
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47"/>
       <c r="F41" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="62">
+      <c r="G41" s="68">
         <f>ROUNDDOWN(G40*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="62"/>
+      <c r="H41" s="68"/>
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="55"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="57"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
       <c r="F42" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="60">
+      <c r="G42" s="66">
         <f>G40+G41</f>
         <v>0</v>
       </c>
-      <c r="H42" s="60"/>
+      <c r="H42" s="66"/>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.15"/>
@@ -1955,28 +1955,20 @@
     <row r="58" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="C20:D20"/>
@@ -1993,26 +1985,34 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G28:H28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.27" bottom="0.98425196850393704" header="0.16" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/public_html/template.xlsx
+++ b/public_html/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.4\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2B6388-8949-471A-9201-A49FBB76E876}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2A73B2-E232-4D8E-8D0C-5C1670B12073}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29595" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29025" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <sheet name="Sheet30" sheetId="32" r:id="rId32"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -831,18 +831,84 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,72 +916,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1414,15 +1414,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="13" style="1"/>
+    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="13" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -1436,11 +1437,11 @@
       <c r="F1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="58">
+      <c r="G1" s="50">
         <f ca="1">TODAY()</f>
-        <v>43599</v>
-      </c>
-      <c r="H1" s="58"/>
+        <v>43620</v>
+      </c>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1476,12 +1477,12 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="43"/>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
@@ -1489,12 +1490,12 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="42"/>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E8" s="23"/>
@@ -1503,22 +1504,22 @@
       <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
     </row>
     <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
@@ -1542,7 +1543,7 @@
       <c r="B13" s="7"/>
       <c r="C13" s="44">
         <f ca="1">EOMONTH(G1,0)</f>
-        <v>43616</v>
+        <v>43646</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
@@ -1556,10 +1557,10 @@
       <c r="C14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
@@ -1586,15 +1587,15 @@
         <v>20</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71">
+      <c r="F17" s="64"/>
+      <c r="G17" s="65">
         <f>G42</f>
         <v>0</v>
       </c>
-      <c r="H17" s="71"/>
+      <c r="H17" s="65"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1602,33 +1603,33 @@
         <v>15</v>
       </c>
       <c r="B19" s="33"/>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="56"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="49"/>
+      <c r="H19" s="71"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="37"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="15"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="52" t="str">
+      <c r="G20" s="45" t="str">
         <f t="shared" ref="G20:G38" si="0">IF(E20="","",E20*F20)</f>
         <v/>
       </c>
-      <c r="H20" s="52"/>
+      <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
@@ -1639,11 +1640,11 @@
       <c r="D21" s="47"/>
       <c r="E21" s="15"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="50" t="str">
+      <c r="G21" s="72" t="str">
         <f>IF(E21="","",E21*F21)</f>
         <v/>
       </c>
-      <c r="H21" s="51"/>
+      <c r="H21" s="73"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
@@ -1654,11 +1655,11 @@
       <c r="D22" s="47"/>
       <c r="E22" s="15"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="52" t="str">
+      <c r="G22" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="52"/>
+      <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
@@ -1669,11 +1670,11 @@
       <c r="D23" s="47"/>
       <c r="E23" s="15"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="52" t="str">
+      <c r="G23" s="45" t="str">
         <f>IF(E23="","",E23*F23)</f>
         <v/>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
@@ -1684,11 +1685,11 @@
       <c r="D24" s="47"/>
       <c r="E24" s="15"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="52" t="str">
+      <c r="G24" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="52"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
@@ -1699,11 +1700,11 @@
       <c r="D25" s="47"/>
       <c r="E25" s="15"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="52" t="str">
+      <c r="G25" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H25" s="52"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
@@ -1714,11 +1715,11 @@
       <c r="D26" s="47"/>
       <c r="E26" s="15"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="52" t="str">
+      <c r="G26" s="45" t="str">
         <f>IF(E26="","",E26*F26)</f>
         <v/>
       </c>
-      <c r="H26" s="52"/>
+      <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
@@ -1727,11 +1728,11 @@
       <c r="D27" s="47"/>
       <c r="E27" s="15"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="52" t="str">
+      <c r="G27" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H27" s="52"/>
+      <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
@@ -1746,28 +1747,28 @@
       <c r="F28" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="52" t="str">
+      <c r="G28" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="52"/>
+      <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="73"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="15"/>
       <c r="F29" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="52" t="str">
+      <c r="G29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
@@ -1778,117 +1779,117 @@
       <c r="D30" s="47"/>
       <c r="E30" s="15"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="52" t="str">
+      <c r="G30" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="52"/>
+      <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="54"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="15"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="52" t="str">
+      <c r="G31" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="52"/>
+      <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="34"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="54"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="15"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="52" t="str">
+      <c r="G32" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="52"/>
+      <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="54"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="15"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="52" t="str">
+      <c r="G33" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H33" s="52"/>
+      <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="34"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="15"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="52" t="str">
+      <c r="G34" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H34" s="52"/>
+      <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="15"/>
       <c r="F35" s="21"/>
-      <c r="G35" s="52" t="str">
+      <c r="G35" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="52"/>
+      <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="54"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
       <c r="E36" s="15"/>
       <c r="F36" s="21"/>
-      <c r="G36" s="52" t="str">
+      <c r="G36" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="52"/>
+      <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="63"/>
       <c r="E37" s="15"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="52" t="str">
+      <c r="G37" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H37" s="52"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="35"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="57"/>
       <c r="E38" s="16"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="67" t="str">
+      <c r="G38" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H38" s="67"/>
+      <c r="H38" s="59"/>
     </row>
     <row r="39" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1901,14 +1902,14 @@
       <c r="F40" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="69">
+      <c r="G40" s="61">
         <f>SUM(G20:H38)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="69"/>
+      <c r="H40" s="61"/>
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="70" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="46"/>
@@ -1917,25 +1918,25 @@
       <c r="F41" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="68">
+      <c r="G41" s="60">
         <f>ROUNDDOWN(G40*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="68"/>
+      <c r="H41" s="60"/>
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="61"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="63"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="55"/>
       <c r="F42" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="66">
+      <c r="G42" s="58">
         <f>G40+G41</f>
         <v>0</v>
       </c>
-      <c r="H42" s="66"/>
+      <c r="H42" s="58"/>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.15"/>
@@ -1955,20 +1956,29 @@
     <row r="58" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A10:H10"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="C20:D20"/>
@@ -1985,34 +1995,25 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G28:H28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2156,9 +2157,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="121.5703125" customWidth="1"/>
+    <col min="1" max="1" width="121.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="408.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2308,15 +2309,15 @@
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="21.375" customWidth="1"/>
     <col min="9" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="26.140625" customWidth="1"/>
+    <col min="11" max="11" width="26.125" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>

--- a/public_html/template.xlsx
+++ b/public_html/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.4\share\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2A73B2-E232-4D8E-8D0C-5C1670B12073}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363EF067-0596-4CDE-8EEF-522E7BB3230A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29025" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27600" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -831,8 +831,8 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -840,11 +840,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -882,40 +906,16 @@
     <xf numFmtId="5" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1422,7 +1422,7 @@
     <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="13" style="1"/>
   </cols>
   <sheetData>
@@ -1437,11 +1437,11 @@
       <c r="F1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="50">
+      <c r="G1" s="58">
         <f ca="1">TODAY()</f>
-        <v>43620</v>
-      </c>
-      <c r="H1" s="50"/>
+        <v>43636</v>
+      </c>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1477,12 +1477,12 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="43"/>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="42"/>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E8" s="23"/>
@@ -1504,22 +1504,22 @@
       <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
     </row>
     <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
@@ -1557,10 +1557,10 @@
       <c r="C14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
@@ -1587,15 +1587,15 @@
         <v>20</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65">
+      <c r="F17" s="70"/>
+      <c r="G17" s="71">
         <f>G42</f>
         <v>0</v>
       </c>
-      <c r="H17" s="65"/>
+      <c r="H17" s="71"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1603,33 +1603,33 @@
         <v>15</v>
       </c>
       <c r="B19" s="33"/>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="68"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="71" t="s">
+      <c r="G19" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="71"/>
+      <c r="H19" s="49"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="37"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="15"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="45" t="str">
+      <c r="G20" s="52" t="str">
         <f t="shared" ref="G20:G38" si="0">IF(E20="","",E20*F20)</f>
         <v/>
       </c>
-      <c r="H20" s="45"/>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
@@ -1640,11 +1640,11 @@
       <c r="D21" s="47"/>
       <c r="E21" s="15"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="72" t="str">
+      <c r="G21" s="50" t="str">
         <f>IF(E21="","",E21*F21)</f>
         <v/>
       </c>
-      <c r="H21" s="73"/>
+      <c r="H21" s="51"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
@@ -1655,11 +1655,11 @@
       <c r="D22" s="47"/>
       <c r="E22" s="15"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="45" t="str">
+      <c r="G22" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="45"/>
+      <c r="H22" s="52"/>
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
@@ -1670,11 +1670,11 @@
       <c r="D23" s="47"/>
       <c r="E23" s="15"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="45" t="str">
+      <c r="G23" s="52" t="str">
         <f>IF(E23="","",E23*F23)</f>
         <v/>
       </c>
-      <c r="H23" s="45"/>
+      <c r="H23" s="52"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
@@ -1685,11 +1685,11 @@
       <c r="D24" s="47"/>
       <c r="E24" s="15"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="45" t="str">
+      <c r="G24" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="45"/>
+      <c r="H24" s="52"/>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
@@ -1700,11 +1700,11 @@
       <c r="D25" s="47"/>
       <c r="E25" s="15"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="45" t="str">
+      <c r="G25" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H25" s="45"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
@@ -1715,11 +1715,11 @@
       <c r="D26" s="47"/>
       <c r="E26" s="15"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="45" t="str">
+      <c r="G26" s="52" t="str">
         <f>IF(E26="","",E26*F26)</f>
         <v/>
       </c>
-      <c r="H26" s="45"/>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
@@ -1728,11 +1728,11 @@
       <c r="D27" s="47"/>
       <c r="E27" s="15"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="45" t="str">
+      <c r="G27" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H27" s="45"/>
+      <c r="H27" s="52"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
@@ -1747,28 +1747,28 @@
       <c r="F28" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="45" t="str">
+      <c r="G28" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="45"/>
+      <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="49"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="15"/>
       <c r="F29" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="45" t="str">
+      <c r="G29" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="45"/>
+      <c r="H29" s="52"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
@@ -1779,117 +1779,117 @@
       <c r="D30" s="47"/>
       <c r="E30" s="15"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="45" t="str">
+      <c r="G30" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="45"/>
+      <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="63"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="15"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="45" t="str">
+      <c r="G31" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="45"/>
+      <c r="H31" s="52"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="34"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="15"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="45" t="str">
+      <c r="G32" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="45"/>
+      <c r="H32" s="52"/>
     </row>
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="63"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="15"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="45" t="str">
+      <c r="G33" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H33" s="45"/>
+      <c r="H33" s="52"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="34"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="15"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="45" t="str">
+      <c r="G34" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H34" s="45"/>
+      <c r="H34" s="52"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="15"/>
       <c r="F35" s="21"/>
-      <c r="G35" s="45" t="str">
+      <c r="G35" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="45"/>
+      <c r="H35" s="52"/>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="15"/>
       <c r="F36" s="21"/>
-      <c r="G36" s="45" t="str">
+      <c r="G36" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="45"/>
+      <c r="H36" s="52"/>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="63"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="15"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="45" t="str">
+      <c r="G37" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H37" s="45"/>
+      <c r="H37" s="52"/>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="35"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="57"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="16"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="59" t="str">
+      <c r="G38" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H38" s="59"/>
+      <c r="H38" s="67"/>
     </row>
     <row r="39" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1902,14 +1902,14 @@
       <c r="F40" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="61">
+      <c r="G40" s="69">
         <f>SUM(G20:H38)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="61"/>
+      <c r="H40" s="69"/>
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="46"/>
@@ -1918,25 +1918,25 @@
       <c r="F41" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="60">
+      <c r="G41" s="68">
         <f>ROUNDDOWN(G40*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="60"/>
+      <c r="H41" s="68"/>
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="53"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="55"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
       <c r="F42" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="58">
+      <c r="G42" s="66">
         <f>G40+G41</f>
         <v>0</v>
       </c>
-      <c r="H42" s="58"/>
+      <c r="H42" s="66"/>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.15"/>
@@ -1956,6 +1956,43 @@
     <row r="58" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A10:H10"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="G19:H19"/>
@@ -1972,48 +2009,11 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G28:H28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.59055118110236227"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/public_html/template.xlsx
+++ b/public_html/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363EF067-0596-4CDE-8EEF-522E7BB3230A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46A336B-21EC-4FC3-B54A-3DEE1BBB061F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27600" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27210" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,14 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
-  <si>
-    <t>■御住所：</t>
-    <rPh sb="1" eb="4">
-      <t>ゴジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>■口座名義：</t>
     <rPh sb="1" eb="3">
@@ -98,39 +91,6 @@
       <t>フリコミ</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■御担当者名：</t>
-    <rPh sb="1" eb="5">
-      <t>ゴタントウシャ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■貴社名/御氏名：</t>
-    <rPh sb="1" eb="3">
-      <t>キシャ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ゴシメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;&lt;御請求先&gt;&gt;</t>
-    <rPh sb="2" eb="5">
-      <t>ゴセイキュウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
       <t>サキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -363,7 +323,7 @@
     <numFmt numFmtId="176" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -414,12 +374,6 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -429,7 +383,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -443,17 +397,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -695,228 +638,222 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1427,516 +1364,508 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="58">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="44">
         <f ca="1">TODAY()</f>
         <v>43636</v>
       </c>
-      <c r="H1" s="58"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="40"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="41"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="41"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="26"/>
-      <c r="E5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="38"/>
+      <c r="E5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="43"/>
-      <c r="E6" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="E6" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="42"/>
-      <c r="E7" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="E7" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
+      <c r="A10" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="28"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="25"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="44">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="37">
         <f ca="1">EOMONTH(G1,0)</f>
         <v>43646</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
+      <c r="A14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="26" t="s">
-        <v>18</v>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="23" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="27" t="s">
-        <v>17</v>
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="70" t="s">
+      <c r="A17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71">
+      <c r="D17" s="10"/>
+      <c r="E17" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59">
         <f>G42</f>
         <v>0</v>
       </c>
-      <c r="H17" s="71"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="49"/>
+      <c r="A19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="62"/>
+      <c r="E19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="52" t="str">
+      <c r="A20" s="12"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="39" t="str">
         <f t="shared" ref="G20:G38" si="0">IF(E20="","",E20*F20)</f>
         <v/>
       </c>
-      <c r="H20" s="52"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="50" t="str">
+      <c r="A21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="66" t="str">
         <f>IF(E21="","",E21*F21)</f>
         <v/>
       </c>
-      <c r="H21" s="51"/>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="52" t="str">
+      <c r="A22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="52"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="52" t="str">
+      <c r="A23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="39" t="str">
         <f>IF(E23="","",E23*F23)</f>
         <v/>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="52" t="str">
+      <c r="A24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="52"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="52" t="str">
+      <c r="A25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H25" s="52"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="52" t="str">
+      <c r="A26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="39" t="str">
         <f>IF(E26="","",E26*F26)</f>
         <v/>
       </c>
-      <c r="H26" s="52"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="52" t="str">
+      <c r="A27" s="12"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H27" s="52"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="52" t="str">
+      <c r="A28" s="12"/>
+      <c r="B28" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="52"/>
+      <c r="H28" s="39"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="52" t="str">
+      <c r="A29" s="12"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="39"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="52" t="str">
+      <c r="A30" s="12"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="52"/>
+      <c r="H30" s="39"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="52" t="str">
+      <c r="A31" s="12"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="52"/>
+      <c r="H31" s="39"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="52" t="str">
+      <c r="A32" s="12"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="52"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="52" t="str">
+      <c r="A33" s="12"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H33" s="52"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="52" t="str">
+      <c r="A34" s="12"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H34" s="52"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="52" t="str">
+      <c r="A35" s="12"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="52"/>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="52" t="str">
+      <c r="A36" s="12"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="52"/>
+      <c r="H36" s="39"/>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="52" t="str">
+      <c r="A37" s="12"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H37" s="52"/>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="67" t="str">
+      <c r="A38" s="13"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H38" s="67"/>
+      <c r="H38" s="53"/>
     </row>
     <row r="39" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="F40" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="69">
+      <c r="A40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="33"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="F40" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="55">
         <f>SUM(G20:H38)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="69"/>
+      <c r="H40" s="55"/>
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47"/>
-      <c r="F41" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="68">
+      <c r="A41" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="F41" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="54">
         <f>ROUNDDOWN(G40*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="68"/>
+      <c r="H41" s="54"/>
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="61"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="63"/>
-      <c r="F42" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="66">
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="49"/>
+      <c r="F42" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="52">
         <f>G40+G41</f>
         <v>0</v>
       </c>
-      <c r="H42" s="66"/>
+      <c r="H42" s="52"/>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.15"/>
@@ -1955,21 +1884,35 @@
     <row r="57" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="58" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G28:H28"/>
+  <mergeCells count="58">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="C20:D20"/>
@@ -1986,29 +1929,20 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G28:H28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/public_html/template.xlsx
+++ b/public_html/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46A336B-21EC-4FC3-B54A-3DEE1BBB061F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7A64F2-0D91-45BE-8330-D888C9280A46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27210" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,7 +638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,8 +756,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -765,6 +768,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -774,54 +837,12 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,29 +852,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1366,32 +1369,32 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="69"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="44">
+      <c r="G1" s="65">
         <f ca="1">TODAY()</f>
         <v>43636</v>
       </c>
-      <c r="H1" s="44"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
@@ -1408,23 +1411,23 @@
       <c r="A6" s="71"/>
       <c r="B6" s="71"/>
       <c r="C6" s="71"/>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="E7" s="60" t="s">
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="E7" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E8" s="20"/>
@@ -1433,22 +1436,22 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
     </row>
     <row r="10" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
     </row>
     <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
@@ -1486,10 +1489,10 @@
       <c r="C14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
@@ -1516,15 +1519,15 @@
         <v>16</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59">
+      <c r="F17" s="66"/>
+      <c r="G17" s="67">
         <f>G42</f>
         <v>0</v>
       </c>
-      <c r="H17" s="59"/>
+      <c r="H17" s="67"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1532,293 +1535,293 @@
         <v>11</v>
       </c>
       <c r="B19" s="30"/>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="62"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="65" t="s">
+      <c r="G19" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="65"/>
+      <c r="H19" s="44"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="12"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="39" t="str">
+      <c r="G20" s="47" t="str">
         <f t="shared" ref="G20:G38" si="0">IF(E20="","",E20*F20)</f>
         <v/>
       </c>
-      <c r="H20" s="39"/>
+      <c r="H20" s="47"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="31"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="12"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="66" t="str">
+      <c r="G21" s="45" t="str">
         <f>IF(E21="","",E21*F21)</f>
         <v/>
       </c>
-      <c r="H21" s="67"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="31"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="12"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="39" t="str">
+      <c r="G22" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="47"/>
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="31"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="12"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="39" t="str">
+      <c r="G23" s="47" t="str">
         <f>IF(E23="","",E23*F23)</f>
         <v/>
       </c>
-      <c r="H23" s="39"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="31"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="12"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="39" t="str">
+      <c r="G24" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="47"/>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="31"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="12"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="39" t="str">
+      <c r="G25" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="47"/>
     </row>
     <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="31"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="12"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="39" t="str">
+      <c r="G26" s="47" t="str">
         <f>IF(E26="","",E26*F26)</f>
         <v/>
       </c>
-      <c r="H26" s="39"/>
+      <c r="H26" s="47"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
       <c r="B27" s="31"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="12"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="39" t="str">
+      <c r="G27" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H27" s="39"/>
+      <c r="H27" s="47"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="41"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="12"/>
       <c r="F28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="39" t="str">
+      <c r="G28" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="39"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="43"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="12"/>
       <c r="F29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="39" t="str">
+      <c r="G29" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="47"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="31"/>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="41"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="12"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="39" t="str">
+      <c r="G30" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12"/>
       <c r="B31" s="31"/>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="57"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="12"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="39" t="str">
+      <c r="G31" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="47"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="12"/>
       <c r="B32" s="31"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="12"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="39" t="str">
+      <c r="G32" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="39"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="12"/>
       <c r="B33" s="31"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="12"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="39" t="str">
+      <c r="G33" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="47"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12"/>
       <c r="B34" s="31"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="57"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="12"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="39" t="str">
+      <c r="G34" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H34" s="39"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="57"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="12"/>
       <c r="F35" s="18"/>
-      <c r="G35" s="39" t="str">
+      <c r="G35" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="39"/>
+      <c r="H35" s="47"/>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="12"/>
       <c r="B36" s="31"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="12"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="39" t="str">
+      <c r="G36" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="39"/>
+      <c r="H36" s="47"/>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="12"/>
       <c r="B37" s="31"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
       <c r="E37" s="12"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="39" t="str">
+      <c r="G37" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H37" s="39"/>
+      <c r="H37" s="47"/>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="32"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="51"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="13"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="53" t="str">
+      <c r="G38" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H38" s="53"/>
+      <c r="H38" s="60"/>
     </row>
     <row r="39" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1831,41 +1834,41 @@
       <c r="F40" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="55">
+      <c r="G40" s="62">
         <f>SUM(G20:H38)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="55"/>
+      <c r="H40" s="62"/>
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="42"/>
       <c r="F41" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="54">
+      <c r="G41" s="61">
         <f>ROUNDDOWN(G40*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="54"/>
+      <c r="H41" s="61"/>
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="47"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="56"/>
       <c r="F42" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="52">
+      <c r="G42" s="59">
         <f>G40+G41</f>
         <v>0</v>
       </c>
-      <c r="H42" s="52"/>
+      <c r="H42" s="59"/>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.15"/>
@@ -1885,9 +1888,48 @@
     <row r="58" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="G19:H19"/>
@@ -1901,48 +1943,9 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G17:H17"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G28:H28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/public_html/template.xlsx
+++ b/public_html/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7A64F2-0D91-45BE-8330-D888C9280A46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E172307-ECB2-42FD-87AE-EA5B80292AA6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27210" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8325" yWindow="1455" windowWidth="24975" windowHeight="17955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,13 +47,14 @@
     <sheet name="Sheet30" sheetId="32" r:id="rId32"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -759,18 +760,96 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -779,84 +858,6 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -987,7 +988,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6400800" y="400050"/>
+          <a:off x="6391275" y="400050"/>
           <a:ext cx="771525" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1348,9 +1349,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1375,26 +1376,26 @@
       <c r="F1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="65">
+      <c r="G1" s="40">
         <f ca="1">TODAY()</f>
-        <v>43636</v>
-      </c>
-      <c r="H1" s="65"/>
+        <v>43770</v>
+      </c>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
@@ -1408,9 +1409,9 @@
       <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
       <c r="E6" s="43" t="s">
         <v>25</v>
       </c>
@@ -1419,9 +1420,9 @@
       <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="E7" s="43" t="s">
         <v>24</v>
       </c>
@@ -1435,442 +1436,437 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-    </row>
-    <row r="10" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="70" t="s">
+    <row r="9" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-    </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="21"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="25"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="25"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="37">
+        <f ca="1">EOMONTH(G1,0)</f>
+        <v>43799</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="37">
-        <f ca="1">EOMONTH(G1,0)</f>
-        <v>43646</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="A13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="23" t="s">
-        <v>14</v>
+      <c r="A15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+      <c r="A16" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="27" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="66" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67">
-        <f>G42</f>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42">
+        <f>G41</f>
         <v>0</v>
       </c>
-      <c r="H17" s="67"/>
-    </row>
-    <row r="18" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="70"/>
+    </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="44"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="49" t="str">
+        <f t="shared" ref="G19:G37" si="0">IF(E19="","",E19*F19)</f>
+        <v/>
+      </c>
+      <c r="H19" s="49"/>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="12"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="47" t="str">
-        <f t="shared" ref="G20:G38" si="0">IF(E20="","",E20*F20)</f>
+      <c r="G20" s="71" t="str">
+        <f>IF(E20="","",E20*F20)</f>
         <v/>
       </c>
-      <c r="H20" s="47"/>
+      <c r="H20" s="72"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="31"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="12"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="45" t="str">
-        <f>IF(E21="","",E21*F21)</f>
+      <c r="G21" s="49" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H21" s="46"/>
+      <c r="H21" s="49"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="31"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="12"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="47" t="str">
+      <c r="G22" s="49" t="str">
+        <f>IF(E22="","",E22*F22)</f>
+        <v/>
+      </c>
+      <c r="H22" s="49"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="47"/>
-    </row>
-    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="47" t="str">
-        <f>IF(E23="","",E23*F23)</f>
-        <v/>
-      </c>
-      <c r="H23" s="47"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="31"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="12"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="47" t="str">
+      <c r="G24" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="47"/>
+      <c r="H24" s="49"/>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="31"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
       <c r="E25" s="12"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="47" t="str">
+      <c r="G25" s="49" t="str">
+        <f>IF(E25="","",E25*F25)</f>
+        <v/>
+      </c>
+      <c r="H25" s="49"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H25" s="47"/>
-    </row>
-    <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="47" t="str">
-        <f>IF(E26="","",E26*F26)</f>
-        <v/>
-      </c>
-      <c r="H26" s="47"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
+      <c r="B27" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="51"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="47" t="str">
+      <c r="F27" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H27" s="47"/>
+      <c r="H27" s="49"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
-      <c r="B28" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="41" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="42"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="12"/>
       <c r="F28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="47" t="str">
+      <c r="G28" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="47"/>
+      <c r="H28" s="49"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="64"/>
+      <c r="D29" s="51"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="47" t="str">
+      <c r="F29" s="18"/>
+      <c r="G29" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="47"/>
+      <c r="H29" s="49"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="31"/>
-      <c r="C30" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="42"/>
+      <c r="C30" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="48"/>
       <c r="E30" s="12"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="47" t="str">
+      <c r="G30" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="47"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12"/>
       <c r="B31" s="31"/>
-      <c r="C31" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="49"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
       <c r="E31" s="12"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="47" t="str">
+      <c r="G31" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="47"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H31" s="49"/>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="12"/>
       <c r="B32" s="31"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="12"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="47" t="str">
+      <c r="G32" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="47"/>
-    </row>
-    <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H32" s="49"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="12"/>
       <c r="B33" s="31"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="12"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="47" t="str">
+      <c r="G33" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H33" s="47"/>
+      <c r="H33" s="49"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12"/>
       <c r="B34" s="31"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="12"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="47" t="str">
+      <c r="G34" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H34" s="47"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="12"/>
       <c r="F35" s="18"/>
-      <c r="G35" s="47" t="str">
+      <c r="G35" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="47"/>
+      <c r="H35" s="49"/>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="12"/>
       <c r="B36" s="31"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="48"/>
       <c r="E36" s="12"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="47" t="str">
+      <c r="G36" s="71" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="47"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="47" t="str">
+      <c r="H36" s="72"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H37" s="47"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="60" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H38" s="60"/>
-    </row>
-    <row r="39" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="H37" s="60"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="33"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="F39" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="62">
+        <f>SUM(G19:H37)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="62"/>
+    </row>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
+      <c r="A40" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="51"/>
       <c r="F40" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="62">
-        <f>SUM(G20:H38)</f>
+        <v>6</v>
+      </c>
+      <c r="G40" s="61">
+        <f>ROUNDDOWN(G39*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="62"/>
+      <c r="H40" s="61"/>
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="42"/>
-      <c r="F41" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="61">
-        <f>ROUNDDOWN(G40*0.08,0)</f>
+      <c r="A41" s="54"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="56"/>
+      <c r="F41" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="59">
+        <f>G39+G40</f>
         <v>0</v>
       </c>
-      <c r="H41" s="61"/>
-    </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="54"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="56"/>
-      <c r="F42" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="59">
-        <f>G40+G41</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="59"/>
-    </row>
-    <row r="43" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="H41" s="59"/>
+    </row>
+    <row r="42" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.15"/>
@@ -1885,72 +1881,70 @@
     <row r="55" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="56" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="57" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="58" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
+  <mergeCells count="57">
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E7:H7"/>
     <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G41:H41"/>
     <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G34:H34"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/public_html/template.xlsx
+++ b/public_html/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E172307-ECB2-42FD-87AE-EA5B80292AA6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7A64F2-0D91-45BE-8330-D888C9280A46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="1455" windowWidth="24975" windowHeight="17955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27210" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,14 +47,13 @@
     <sheet name="Sheet30" sheetId="32" r:id="rId32"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -760,6 +759,81 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -769,8 +843,11 @@
     <xf numFmtId="5" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -780,84 +857,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -988,7 +987,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6391275" y="400050"/>
+          <a:off x="6400800" y="400050"/>
           <a:ext cx="771525" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1349,9 +1348,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
-  <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0"/>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1376,26 +1375,26 @@
       <c r="F1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="40">
+      <c r="G1" s="65">
         <f ca="1">TODAY()</f>
-        <v>43770</v>
-      </c>
-      <c r="H1" s="40"/>
+        <v>43636</v>
+      </c>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
@@ -1409,9 +1408,9 @@
       <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
       <c r="E6" s="43" t="s">
         <v>25</v>
       </c>
@@ -1420,9 +1419,9 @@
       <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
       <c r="E7" s="43" t="s">
         <v>24</v>
       </c>
@@ -1436,437 +1435,442 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+    </row>
+    <row r="10" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+    </row>
+    <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="25"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="25"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="37">
+      <c r="B13" s="4"/>
+      <c r="C13" s="37">
         <f ca="1">EOMONTH(G1,0)</f>
-        <v>43799</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+        <v>43646</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="26" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="23" t="s">
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="24" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="27" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="41" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42">
-        <f>G41</f>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67">
+        <f>G42</f>
         <v>0</v>
       </c>
-      <c r="H16" s="42"/>
-    </row>
-    <row r="17" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="H17" s="67"/>
+    </row>
+    <row r="18" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="67" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="11" t="s">
+      <c r="D19" s="69"/>
+      <c r="E19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="70" t="s">
+      <c r="G19" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="70"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="49" t="str">
-        <f t="shared" ref="G19:G37" si="0">IF(E19="","",E19*F19)</f>
-        <v/>
-      </c>
-      <c r="H19" s="49"/>
-    </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
+      <c r="H19" s="44"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="12"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="71" t="str">
-        <f>IF(E20="","",E20*F20)</f>
+      <c r="G20" s="47" t="str">
+        <f t="shared" ref="G20:G38" si="0">IF(E20="","",E20*F20)</f>
         <v/>
       </c>
-      <c r="H20" s="72"/>
+      <c r="H20" s="47"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="31"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="12"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="49" t="str">
-        <f t="shared" si="0"/>
+      <c r="G21" s="45" t="str">
+        <f>IF(E21="","",E21*F21)</f>
         <v/>
       </c>
-      <c r="H21" s="49"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="31"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="12"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="49" t="str">
-        <f>IF(E22="","",E22*F22)</f>
+      <c r="G22" s="47" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="49"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H22" s="47"/>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="31"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="12"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="49" t="str">
+      <c r="G23" s="47" t="str">
+        <f>IF(E23="","",E23*F23)</f>
+        <v/>
+      </c>
+      <c r="H23" s="47"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H23" s="49"/>
-    </row>
-    <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H24" s="49"/>
+      <c r="H24" s="47"/>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="31"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="12"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="49" t="str">
-        <f>IF(E25="","",E25*F25)</f>
+      <c r="G25" s="47" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H25" s="49"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
+      <c r="H25" s="47"/>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="B26" s="31"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="12"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="49" t="str">
+      <c r="G26" s="47" t="str">
+        <f>IF(E26="","",E26*F26)</f>
+        <v/>
+      </c>
+      <c r="H26" s="47"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H26" s="49"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H27" s="49"/>
+      <c r="H27" s="47"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="52" t="s">
+      <c r="B28" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="53"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="12"/>
       <c r="F28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="49" t="str">
+      <c r="G28" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="49"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="51"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="49" t="str">
+      <c r="F29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="49"/>
+      <c r="H29" s="47"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="31"/>
-      <c r="C30" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="48"/>
+      <c r="C30" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="42"/>
       <c r="E30" s="12"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="49" t="str">
+      <c r="G30" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="49"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12"/>
       <c r="B31" s="31"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
+      <c r="C31" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="49"/>
       <c r="E31" s="12"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="49" t="str">
+      <c r="G31" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="49"/>
-    </row>
-    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H31" s="47"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="12"/>
       <c r="B32" s="31"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="12"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="49" t="str">
+      <c r="G32" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="49"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="12"/>
       <c r="B33" s="31"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="12"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="49" t="str">
+      <c r="G33" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H33" s="49"/>
+      <c r="H33" s="47"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12"/>
       <c r="B34" s="31"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="12"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="49" t="str">
+      <c r="G34" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H34" s="49"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="12"/>
       <c r="F35" s="18"/>
-      <c r="G35" s="49" t="str">
+      <c r="G35" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="49"/>
+      <c r="H35" s="47"/>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="12"/>
       <c r="B36" s="31"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="12"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="71" t="str">
+      <c r="G36" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="72"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="60" t="str">
+      <c r="H36" s="47"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="12"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H37" s="60"/>
-    </row>
-    <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="14" t="s">
+      <c r="H37" s="47"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H38" s="60"/>
+    </row>
+    <row r="39" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="F39" s="22" t="s">
+      <c r="B40" s="33"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="F40" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="62">
-        <f>SUM(G19:H37)</f>
+      <c r="G40" s="62">
+        <f>SUM(G20:H38)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="62"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="69" t="s">
+      <c r="H40" s="62"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="51"/>
-      <c r="F40" s="22" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="42"/>
+      <c r="F41" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="61">
-        <f>ROUNDDOWN(G39*0.1,0)</f>
+      <c r="G41" s="61">
+        <f>ROUNDDOWN(G40*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="61"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="56"/>
-      <c r="F41" s="17" t="s">
+      <c r="H41" s="61"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="54"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="56"/>
+      <c r="F42" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="59">
-        <f>G39+G40</f>
+      <c r="G42" s="59">
+        <f>G40+G41</f>
         <v>0</v>
       </c>
-      <c r="H41" s="59"/>
-    </row>
-    <row r="42" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.15"/>
+      <c r="H42" s="59"/>
+    </row>
+    <row r="43" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.15"/>
@@ -1881,70 +1885,72 @@
     <row r="55" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="56" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="57" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="58" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="G36:H36"/>
+  <mergeCells count="58">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.59055118110236227"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/public_html/template.xlsx
+++ b/public_html/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7A64F2-0D91-45BE-8330-D888C9280A46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB847933-3DE1-4DAD-A03C-B01943606E20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27210" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9975" yWindow="2160" windowWidth="22725" windowHeight="17805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -759,76 +760,82 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -841,12 +848,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1375,26 +1376,26 @@
       <c r="F1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="65">
+      <c r="G1" s="67">
         <f ca="1">TODAY()</f>
-        <v>43636</v>
-      </c>
-      <c r="H1" s="65"/>
+        <v>43770</v>
+      </c>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
@@ -1411,35 +1412,35 @@
       <c r="A6" s="71"/>
       <c r="B6" s="71"/>
       <c r="C6" s="71"/>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="72"/>
       <c r="B7" s="72"/>
       <c r="C7" s="72"/>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="70" t="s">
@@ -1453,7 +1454,7 @@
       <c r="G10" s="70"/>
       <c r="H10" s="70"/>
     </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="21"/>
@@ -1475,7 +1476,7 @@
       <c r="B13" s="4"/>
       <c r="C13" s="37">
         <f ca="1">EOMONTH(G1,0)</f>
-        <v>43646</v>
+        <v>43799</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="36"/>
@@ -1489,10 +1490,10 @@
       <c r="C14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
@@ -1519,15 +1520,15 @@
         <v>16</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67">
+      <c r="F17" s="68"/>
+      <c r="G17" s="69">
         <f>G42</f>
         <v>0</v>
       </c>
-      <c r="H17" s="67"/>
+      <c r="H17" s="69"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1535,293 +1536,293 @@
         <v>11</v>
       </c>
       <c r="B19" s="30"/>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="69"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="44"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="12"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="47" t="str">
+      <c r="G20" s="45" t="str">
         <f t="shared" ref="G20:G38" si="0">IF(E20="","",E20*F20)</f>
         <v/>
       </c>
-      <c r="H20" s="47"/>
+      <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="31"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="12"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="45" t="str">
+      <c r="G21" s="41" t="str">
         <f>IF(E21="","",E21*F21)</f>
         <v/>
       </c>
-      <c r="H21" s="46"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="31"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="12"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="47" t="str">
+      <c r="G22" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="47"/>
+      <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="31"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="12"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="47" t="str">
+      <c r="G23" s="45" t="str">
         <f>IF(E23="","",E23*F23)</f>
         <v/>
       </c>
-      <c r="H23" s="47"/>
+      <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="31"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="12"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="47" t="str">
+      <c r="G24" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="47"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="31"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="12"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="47" t="str">
+      <c r="G25" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H25" s="47"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="31"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="12"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="47" t="str">
+      <c r="G26" s="45" t="str">
         <f>IF(E26="","",E26*F26)</f>
         <v/>
       </c>
-      <c r="H26" s="47"/>
+      <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
       <c r="B27" s="31"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="12"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="47" t="str">
+      <c r="G27" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H27" s="47"/>
+      <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="42"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="12"/>
       <c r="F28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="47" t="str">
+      <c r="G28" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="47"/>
+      <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="64"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="12"/>
       <c r="F29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="47" t="str">
+      <c r="G29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="47"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="31"/>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="42"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="12"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="47" t="str">
+      <c r="G30" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="47"/>
+      <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12"/>
       <c r="B31" s="31"/>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="49"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="12"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="47" t="str">
+      <c r="G31" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="47"/>
+      <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="12"/>
       <c r="B32" s="31"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="12"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="47" t="str">
+      <c r="G32" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="47"/>
+      <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="12"/>
       <c r="B33" s="31"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="12"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="47" t="str">
+      <c r="G33" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H33" s="47"/>
+      <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12"/>
       <c r="B34" s="31"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="12"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="47" t="str">
+      <c r="G34" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H34" s="47"/>
+      <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="12"/>
       <c r="F35" s="18"/>
-      <c r="G35" s="47" t="str">
+      <c r="G35" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="47"/>
+      <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="12"/>
       <c r="B36" s="31"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="12"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="47" t="str">
+      <c r="G36" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="47"/>
+      <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="12"/>
       <c r="B37" s="31"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="12"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="47" t="str">
+      <c r="G37" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H37" s="47"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="32"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="13"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="60" t="str">
+      <c r="G38" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H38" s="60"/>
+      <c r="H38" s="61"/>
     </row>
     <row r="39" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1834,41 +1835,41 @@
       <c r="F40" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="62">
+      <c r="G40" s="63">
         <f>SUM(G20:H38)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="62"/>
+      <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="44"/>
       <c r="F41" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="61">
+      <c r="G41" s="62">
         <f>ROUNDDOWN(G40*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="61"/>
+      <c r="H41" s="62"/>
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="54"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="56"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="57"/>
       <c r="F42" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="59">
+      <c r="G42" s="60">
         <f>G40+G41</f>
         <v>0</v>
       </c>
-      <c r="H42" s="59"/>
+      <c r="H42" s="60"/>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.15"/>
@@ -1897,7 +1898,6 @@
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="C35:D35"/>
@@ -1915,7 +1915,7 @@
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A41:D41"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
@@ -1930,7 +1930,6 @@
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A41:D41"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G21:H21"/>
@@ -1946,6 +1945,8 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/public_html/template.xlsx
+++ b/public_html/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB847933-3DE1-4DAD-A03C-B01943606E20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCCED81-7D05-4DE0-B005-C5C5B308C6DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9975" yWindow="2160" windowWidth="22725" windowHeight="17805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10320" yWindow="2505" windowWidth="22725" windowHeight="17805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -760,6 +760,96 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,96 +858,6 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1376,26 +1376,26 @@
       <c r="F1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="67">
+      <c r="G1" s="40">
         <f ca="1">TODAY()</f>
         <v>43770</v>
       </c>
-      <c r="H1" s="67"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
@@ -1409,26 +1409,26 @@
       <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="E6" s="54" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="E6" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="E7" s="54" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="E7" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E8" s="20"/>
@@ -1437,22 +1437,22 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
     </row>
     <row r="10" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
@@ -1490,10 +1490,10 @@
       <c r="C14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
@@ -1520,15 +1520,15 @@
         <v>16</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="68" t="s">
+      <c r="E17" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="69">
+      <c r="F17" s="41"/>
+      <c r="G17" s="42">
         <f>G42</f>
         <v>0</v>
       </c>
-      <c r="H17" s="69"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1536,293 +1536,293 @@
         <v>11</v>
       </c>
       <c r="B19" s="30"/>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="53"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="40"/>
+      <c r="H19" s="70"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="12"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="45" t="str">
+      <c r="G20" s="49" t="str">
         <f t="shared" ref="G20:G38" si="0">IF(E20="","",E20*F20)</f>
         <v/>
       </c>
-      <c r="H20" s="45"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="31"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="12"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="41" t="str">
+      <c r="G21" s="71" t="str">
         <f>IF(E21="","",E21*F21)</f>
         <v/>
       </c>
-      <c r="H21" s="42"/>
+      <c r="H21" s="72"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="31"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="12"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="45" t="str">
+      <c r="G22" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="45"/>
+      <c r="H22" s="49"/>
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="31"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="12"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="45" t="str">
+      <c r="G23" s="49" t="str">
         <f>IF(E23="","",E23*F23)</f>
         <v/>
       </c>
-      <c r="H23" s="45"/>
+      <c r="H23" s="49"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="31"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="12"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="45" t="str">
+      <c r="G24" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="45"/>
+      <c r="H24" s="49"/>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="31"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
       <c r="E25" s="12"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="45" t="str">
+      <c r="G25" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H25" s="45"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="31"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="12"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="45" t="str">
+      <c r="G26" s="49" t="str">
         <f>IF(E26="","",E26*F26)</f>
         <v/>
       </c>
-      <c r="H26" s="45"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
       <c r="B27" s="31"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="12"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="45" t="str">
+      <c r="G27" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H27" s="45"/>
+      <c r="H27" s="49"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="12"/>
       <c r="F28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="45" t="str">
+      <c r="G28" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="45"/>
+      <c r="H28" s="49"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="66"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="12"/>
       <c r="F29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="45" t="str">
+      <c r="G29" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="45"/>
+      <c r="H29" s="49"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="31"/>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="44"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="12"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="45" t="str">
+      <c r="G30" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="45"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12"/>
       <c r="B31" s="31"/>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="47"/>
+      <c r="D31" s="48"/>
       <c r="E31" s="12"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="45" t="str">
+      <c r="G31" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="45"/>
+      <c r="H31" s="49"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="12"/>
       <c r="B32" s="31"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="12"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="45" t="str">
+      <c r="G32" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="45"/>
+      <c r="H32" s="49"/>
     </row>
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="12"/>
       <c r="B33" s="31"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="12"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="45" t="str">
+      <c r="G33" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H33" s="45"/>
+      <c r="H33" s="49"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12"/>
       <c r="B34" s="31"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="12"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="45" t="str">
+      <c r="G34" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H34" s="45"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="12"/>
       <c r="F35" s="18"/>
-      <c r="G35" s="45" t="str">
+      <c r="G35" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="45"/>
+      <c r="H35" s="49"/>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="12"/>
       <c r="B36" s="31"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="48"/>
       <c r="E36" s="12"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="45" t="str">
+      <c r="G36" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="45"/>
+      <c r="H36" s="49"/>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="12"/>
       <c r="B37" s="31"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="48"/>
       <c r="E37" s="12"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="45" t="str">
+      <c r="G37" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H37" s="45"/>
+      <c r="H37" s="49"/>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="32"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="13"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="61" t="str">
+      <c r="G38" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H38" s="61"/>
+      <c r="H38" s="60"/>
     </row>
     <row r="39" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1835,41 +1835,41 @@
       <c r="F40" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="63">
+      <c r="G40" s="62">
         <f>SUM(G20:H38)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="63"/>
+      <c r="H40" s="62"/>
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="51"/>
       <c r="F41" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="62">
-        <f>ROUNDDOWN(G40*0.08,0)</f>
+      <c r="G41" s="61">
+        <f>ROUNDDOWN(G40*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="62"/>
+      <c r="H41" s="61"/>
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="55"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="57"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="56"/>
       <c r="F42" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="60">
+      <c r="G42" s="59">
         <f>G40+G41</f>
         <v>0</v>
       </c>
-      <c r="H42" s="60"/>
+      <c r="H42" s="59"/>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.15"/>
@@ -1889,15 +1889,36 @@
     <row r="58" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="A41:D41"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="C35:D35"/>
@@ -1909,44 +1930,23 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
